--- a/biology/Zoologie/Enantia/Enantia.xlsx
+++ b/biology/Zoologie/Enantia/Enantia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Enantia regroupe des insectes lépidoptères de la famille des Pieridae et de la sous-famille des Dismorphiinae qui résident en Amérique (Mexique, Amérique centrale et Amérique du Sud) .
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enantia a été nommé par Jakob Hübner en 1819.
-Synonyme : Licinia Swainson, [1820]
+Synonyme : Licinia Swainson, 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Enantia albania (Bates, 1864); présent au Mexique, au Guatemala, à Panama, au Nicaragua et en Équateur.
 Enantia albania albania; au Mexique et au Guatemala.
@@ -559,7 +575,7 @@
 Enantia lina acutipennis Butler, 1896; à Trinité-et-Tobago
 Enantia lina aphrodite (C. &amp; R. Felder, 1865); présent au Brésil.
 Enantia lina galanthis (Bates, 1861); en Équateur, au Brésil, en Bolivie et au Pérou.
-Enantia lina marion Godman &amp; Salvin, [1889]; au Mexique, au Guatemala, à Panama et au Nicaragua.
+Enantia lina marion Godman &amp; Salvin, ; au Mexique, au Guatemala, à Panama et au Nicaragua.
 Enantia lina mercenaria (C. &amp; R. Felder, 1861); à Panama, au Venezuela et en Colombie.
 Enantia lina psamanthe (Fabricius, 1793); présent au Brésil et en Uruguay.
 Enantia lina versicolora (Fruhstorfer, 1912); présent au Brésil.
